--- a/notes/客户管理.xlsx
+++ b/notes/客户管理.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100">
   <si>
     <t>处理日期</t>
   </si>
@@ -169,6 +169,9 @@
     <t>Michael Lieberman</t>
   </si>
   <si>
+    <t>25卖他样品</t>
+  </si>
+  <si>
     <t>sirena forrest</t>
   </si>
   <si>
@@ -197,6 +200,123 @@
   </si>
   <si>
     <t>买了88件泡泡裤。等货到了，问问他</t>
+  </si>
+  <si>
+    <t> Anel Tulegenova</t>
+  </si>
+  <si>
+    <t>在广州的外国人，好像是嫌运费贵了</t>
+  </si>
+  <si>
+    <t>maries rebucas</t>
+  </si>
+  <si>
+    <t>问买样品多少钱，到hk</t>
+  </si>
+  <si>
+    <t>Lady Luxury</t>
+  </si>
+  <si>
+    <t>买了样品</t>
+  </si>
+  <si>
+    <t>derek nguyen</t>
+  </si>
+  <si>
+    <t>Emily Jardine</t>
+  </si>
+  <si>
+    <t>等他发尺码表</t>
+  </si>
+  <si>
+    <t>Chanel Lewis</t>
+  </si>
+  <si>
+    <t>要买50套，量少了</t>
+  </si>
+  <si>
+    <t>Trade House Kazakhstan Export &amp; Import</t>
+  </si>
+  <si>
+    <t>阿塞拜疆的，非要邮件交流</t>
+  </si>
+  <si>
+    <t>Lauren C</t>
+  </si>
+  <si>
+    <t>Margaret m</t>
+  </si>
+  <si>
+    <t>想买大码的，但是没有。</t>
+  </si>
+  <si>
+    <t>irina</t>
+  </si>
+  <si>
+    <t>拿到样品了，感觉腰部不舒服</t>
+  </si>
+  <si>
+    <t>Harry Tony</t>
+  </si>
+  <si>
+    <t>群发询价，要邮件交流</t>
+  </si>
+  <si>
+    <t>Nitin Chouhan</t>
+  </si>
+  <si>
+    <t>印度鬼，跟了没回</t>
+  </si>
+  <si>
+    <t>询了很多商品，然后不回复（应该不会买了）</t>
+  </si>
+  <si>
+    <t>应该是有订单的，但是做不下来</t>
+  </si>
+  <si>
+    <t>Stephanie Foster</t>
+  </si>
+  <si>
+    <t>要买样品</t>
+  </si>
+  <si>
+    <t>RACHEL RAUS</t>
+  </si>
+  <si>
+    <t>听着好像不想买了</t>
+  </si>
+  <si>
+    <t>DeNarrio Singleton</t>
+  </si>
+  <si>
+    <t>买样品，发了很多图片</t>
+  </si>
+  <si>
+    <t>Maria Cabading Popov</t>
+  </si>
+  <si>
+    <t>买bra</t>
+  </si>
+  <si>
+    <t>Sam Brown</t>
+  </si>
+  <si>
+    <t>买裤子</t>
+  </si>
+  <si>
+    <t>裤子</t>
+  </si>
+  <si>
+    <t>定做一些裤子</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Heagan Nando </t>
+  </si>
+  <si>
+    <t>Habibah Bell</t>
+  </si>
+  <si>
+    <t>定做衣服，发了尺码表</t>
   </si>
 </sst>
 </file>
@@ -206,10 +326,10 @@
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="23">
+  <fonts count="26">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -237,34 +357,23 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
+      <sz val="9"/>
+      <color rgb="FF666666"/>
+      <name val="Roboto"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10.5"/>
+      <color rgb="FF333333"/>
+      <name val="Roboto"/>
+      <charset val="134"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
+      <sz val="10.5"/>
+      <color rgb="FF333333"/>
+      <name val="Roboto"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
@@ -290,8 +399,46 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -312,6 +459,37 @@
     </font>
     <font>
       <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="18"/>
       <color theme="3"/>
       <name val="宋体"/>
@@ -319,16 +497,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -342,44 +513,12 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="35">
     <fill>
@@ -402,73 +541,163 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -480,109 +709,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -593,50 +732,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -658,8 +753,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -679,6 +774,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -693,6 +803,35 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -701,10 +840,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="18" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -713,137 +852,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="28" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="23" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="23" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="34" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="11" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="26" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -862,14 +1001,26 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="14" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1496,10 +1647,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:K34"/>
+  <dimension ref="A1:K46"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C14" workbookViewId="0">
-      <selection activeCell="K21" sqref="K21"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="K29" sqref="K29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1539,10 +1690,10 @@
       <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="8" t="s">
+      <c r="I1" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="8" t="s">
+      <c r="J1" s="10" t="s">
         <v>9</v>
       </c>
       <c r="K1" t="s">
@@ -1621,7 +1772,7 @@
       </c>
     </row>
     <row r="5" ht="93" customHeight="1" spans="1:11">
-      <c r="A5" s="2">
+      <c r="A5" s="6">
         <v>43470</v>
       </c>
       <c r="B5" s="3" t="s">
@@ -1726,7 +1877,7 @@
       </c>
     </row>
     <row r="10" ht="84" customHeight="1" spans="1:11">
-      <c r="A10" s="2">
+      <c r="A10" s="6">
         <v>43473</v>
       </c>
       <c r="B10" s="3" t="s">
@@ -1748,7 +1899,7 @@
       <c r="A11" s="2">
         <v>43473</v>
       </c>
-      <c r="B11" s="6" t="s">
+      <c r="B11" s="7" t="s">
         <v>40</v>
       </c>
       <c r="C11" s="3" t="s">
@@ -1766,7 +1917,7 @@
       </c>
     </row>
     <row r="12" ht="41" customHeight="1" spans="1:11">
-      <c r="A12" s="2">
+      <c r="A12" s="6">
         <v>43473</v>
       </c>
       <c r="B12" s="3" t="s">
@@ -1822,7 +1973,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="15" ht="26" customHeight="1" spans="1:10">
+    <row r="15" ht="26" customHeight="1" spans="1:11">
       <c r="A15" s="2">
         <v>43474</v>
       </c>
@@ -1837,13 +1988,16 @@
       <c r="H15" s="3"/>
       <c r="I15" s="3"/>
       <c r="J15" s="3"/>
+      <c r="K15" t="s">
+        <v>50</v>
+      </c>
     </row>
     <row r="16" ht="44" customHeight="1" spans="1:11">
-      <c r="A16" s="2">
+      <c r="A16" s="6">
         <v>43474</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C16" s="3"/>
       <c r="D16" s="3"/>
@@ -1854,7 +2008,7 @@
       <c r="I16" s="3"/>
       <c r="J16" s="3"/>
       <c r="K16" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="17" ht="21" customHeight="1" spans="1:11">
@@ -1873,7 +2027,7 @@
       <c r="I17" s="3"/>
       <c r="J17" s="3"/>
       <c r="K17" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="18" spans="1:10">
@@ -1881,7 +2035,7 @@
         <v>43474</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C18" s="3"/>
       <c r="D18" s="3"/>
@@ -1897,7 +2051,7 @@
         <v>43474</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C19" s="3"/>
       <c r="D19" s="3"/>
@@ -1908,15 +2062,15 @@
       <c r="I19" s="3"/>
       <c r="J19" s="3"/>
       <c r="K19" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="20" ht="33" customHeight="1" spans="1:11">
-      <c r="A20" s="2">
+      <c r="A20" s="6">
         <v>43474</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C20" s="3"/>
       <c r="D20" s="3"/>
@@ -1927,15 +2081,15 @@
       <c r="I20" s="3"/>
       <c r="J20" s="3"/>
       <c r="K20" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="21" ht="48" customHeight="1" spans="1:11">
-      <c r="A21" s="2">
+      <c r="A21" s="6">
         <v>43474</v>
       </c>
       <c r="B21" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C21" s="3"/>
       <c r="D21" s="3"/>
@@ -1946,12 +2100,16 @@
       <c r="I21" s="3"/>
       <c r="J21" s="3"/>
       <c r="K21" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="22" spans="1:10">
-      <c r="A22" s="3"/>
-      <c r="B22" s="3"/>
+        <v>60</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11">
+      <c r="A22" s="6">
+        <v>43476</v>
+      </c>
+      <c r="B22" s="8" t="s">
+        <v>61</v>
+      </c>
       <c r="C22" s="3"/>
       <c r="D22" s="3"/>
       <c r="E22" s="3"/>
@@ -1960,10 +2118,17 @@
       <c r="H22" s="3"/>
       <c r="I22" s="3"/>
       <c r="J22" s="3"/>
-    </row>
-    <row r="23" spans="1:10">
-      <c r="A23" s="3"/>
-      <c r="B23" s="3"/>
+      <c r="K22" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="23" ht="70" customHeight="1" spans="1:11">
+      <c r="A23" s="6">
+        <v>43476</v>
+      </c>
+      <c r="B23" s="9" t="s">
+        <v>63</v>
+      </c>
       <c r="C23" s="3"/>
       <c r="D23" s="3"/>
       <c r="E23" s="3"/>
@@ -1972,10 +2137,17 @@
       <c r="H23" s="3"/>
       <c r="I23" s="3"/>
       <c r="J23" s="3"/>
-    </row>
-    <row r="24" spans="1:10">
-      <c r="A24" s="3"/>
-      <c r="B24" s="3"/>
+      <c r="K23" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="24" ht="14.25" spans="1:11">
+      <c r="A24" s="6">
+        <v>43476</v>
+      </c>
+      <c r="B24" s="9" t="s">
+        <v>65</v>
+      </c>
       <c r="C24" s="3"/>
       <c r="D24" s="3"/>
       <c r="E24" s="3"/>
@@ -1984,10 +2156,17 @@
       <c r="H24" s="3"/>
       <c r="I24" s="3"/>
       <c r="J24" s="3"/>
-    </row>
-    <row r="25" spans="1:10">
-      <c r="A25" s="3"/>
-      <c r="B25" s="3"/>
+      <c r="K24" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11">
+      <c r="A25" s="6">
+        <v>43476</v>
+      </c>
+      <c r="B25" s="3" t="s">
+        <v>67</v>
+      </c>
       <c r="C25" s="3"/>
       <c r="D25" s="3"/>
       <c r="E25" s="3"/>
@@ -1996,10 +2175,17 @@
       <c r="H25" s="3"/>
       <c r="I25" s="3"/>
       <c r="J25" s="3"/>
-    </row>
-    <row r="26" spans="1:10">
-      <c r="A26" s="3"/>
-      <c r="B26" s="3"/>
+      <c r="K25" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11">
+      <c r="A26" s="6">
+        <v>43476</v>
+      </c>
+      <c r="B26" s="10" t="s">
+        <v>68</v>
+      </c>
       <c r="C26" s="3"/>
       <c r="D26" s="3"/>
       <c r="E26" s="3"/>
@@ -2008,10 +2194,17 @@
       <c r="H26" s="3"/>
       <c r="I26" s="3"/>
       <c r="J26" s="3"/>
-    </row>
-    <row r="27" spans="1:10">
-      <c r="A27" s="3"/>
-      <c r="B27" s="3"/>
+      <c r="K26" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11">
+      <c r="A27" s="6">
+        <v>43476</v>
+      </c>
+      <c r="B27" s="3" t="s">
+        <v>70</v>
+      </c>
       <c r="C27" s="3"/>
       <c r="D27" s="3"/>
       <c r="E27" s="3"/>
@@ -2020,10 +2213,17 @@
       <c r="H27" s="3"/>
       <c r="I27" s="3"/>
       <c r="J27" s="3"/>
-    </row>
-    <row r="28" spans="1:10">
-      <c r="A28" s="3"/>
-      <c r="B28" s="3"/>
+      <c r="K27" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="28" ht="40.5" spans="1:11">
+      <c r="A28" s="6">
+        <v>43476</v>
+      </c>
+      <c r="B28" s="3" t="s">
+        <v>72</v>
+      </c>
       <c r="C28" s="3"/>
       <c r="D28" s="3"/>
       <c r="E28" s="3"/>
@@ -2032,10 +2232,17 @@
       <c r="H28" s="3"/>
       <c r="I28" s="3"/>
       <c r="J28" s="3"/>
+      <c r="K28" t="s">
+        <v>73</v>
+      </c>
     </row>
     <row r="29" spans="1:10">
-      <c r="A29" s="3"/>
-      <c r="B29" s="3"/>
+      <c r="A29" s="6">
+        <v>43476</v>
+      </c>
+      <c r="B29" s="3" t="s">
+        <v>74</v>
+      </c>
       <c r="C29" s="3"/>
       <c r="D29" s="3"/>
       <c r="E29" s="3"/>
@@ -2045,9 +2252,13 @@
       <c r="I29" s="3"/>
       <c r="J29" s="3"/>
     </row>
-    <row r="30" spans="1:10">
-      <c r="A30" s="3"/>
-      <c r="B30" s="3"/>
+    <row r="30" ht="46" customHeight="1" spans="1:11">
+      <c r="A30" s="6">
+        <v>43476</v>
+      </c>
+      <c r="B30" s="3" t="s">
+        <v>75</v>
+      </c>
       <c r="C30" s="3"/>
       <c r="D30" s="3"/>
       <c r="E30" s="3"/>
@@ -2056,10 +2267,17 @@
       <c r="H30" s="3"/>
       <c r="I30" s="3"/>
       <c r="J30" s="3"/>
-    </row>
-    <row r="31" spans="1:10">
-      <c r="A31" s="3"/>
-      <c r="B31" s="3"/>
+      <c r="K30" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11">
+      <c r="A31" s="6">
+        <v>43476</v>
+      </c>
+      <c r="B31" s="3" t="s">
+        <v>77</v>
+      </c>
       <c r="C31" s="3"/>
       <c r="D31" s="3"/>
       <c r="E31" s="3"/>
@@ -2068,10 +2286,17 @@
       <c r="H31" s="3"/>
       <c r="I31" s="3"/>
       <c r="J31" s="3"/>
-    </row>
-    <row r="32" spans="1:10">
-      <c r="A32" s="3"/>
-      <c r="B32" s="3"/>
+      <c r="K31" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="32" ht="39" customHeight="1" spans="1:11">
+      <c r="A32" s="6">
+        <v>43476</v>
+      </c>
+      <c r="B32" s="3" t="s">
+        <v>79</v>
+      </c>
       <c r="C32" s="3"/>
       <c r="D32" s="3"/>
       <c r="E32" s="3"/>
@@ -2080,10 +2305,17 @@
       <c r="H32" s="3"/>
       <c r="I32" s="3"/>
       <c r="J32" s="3"/>
-    </row>
-    <row r="33" spans="1:10">
-      <c r="A33" s="3"/>
-      <c r="B33" s="3"/>
+      <c r="K32" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="33" ht="14.25" spans="1:11">
+      <c r="A33" s="6">
+        <v>43476</v>
+      </c>
+      <c r="B33" s="9" t="s">
+        <v>81</v>
+      </c>
       <c r="C33" s="3"/>
       <c r="D33" s="3"/>
       <c r="E33" s="3"/>
@@ -2092,10 +2324,17 @@
       <c r="H33" s="3"/>
       <c r="I33" s="3"/>
       <c r="J33" s="3"/>
-    </row>
-    <row r="34" spans="1:10">
-      <c r="A34" s="3"/>
-      <c r="B34" s="3"/>
+      <c r="K33" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="34" ht="14.25" spans="1:11">
+      <c r="A34" s="6">
+        <v>43476</v>
+      </c>
+      <c r="B34" s="9" t="s">
+        <v>36</v>
+      </c>
       <c r="C34" s="3"/>
       <c r="D34" s="3"/>
       <c r="E34" s="3"/>
@@ -2104,8 +2343,125 @@
       <c r="H34" s="3"/>
       <c r="I34" s="3"/>
       <c r="J34" s="3"/>
+      <c r="K34" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11">
+      <c r="A35" s="6">
+        <v>43476</v>
+      </c>
+      <c r="B35" t="s">
+        <v>47</v>
+      </c>
+      <c r="K35" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="36" ht="31" customHeight="1" spans="1:11">
+      <c r="A36" s="6">
+        <v>43476</v>
+      </c>
+      <c r="B36" t="s">
+        <v>85</v>
+      </c>
+      <c r="K36" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="37" ht="23" customHeight="1" spans="1:11">
+      <c r="A37" s="6">
+        <v>43476</v>
+      </c>
+      <c r="B37" t="s">
+        <v>87</v>
+      </c>
+      <c r="K37" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="38" ht="14.25" spans="1:11">
+      <c r="A38" s="6">
+        <v>43477</v>
+      </c>
+      <c r="B38" s="9" t="s">
+        <v>89</v>
+      </c>
+      <c r="K38" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11">
+      <c r="A39" s="6">
+        <v>43477</v>
+      </c>
+      <c r="B39" t="s">
+        <v>91</v>
+      </c>
+      <c r="K39" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11">
+      <c r="A40" s="6">
+        <v>43477</v>
+      </c>
+      <c r="B40" t="s">
+        <v>93</v>
+      </c>
+      <c r="K40" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="41" ht="24" customHeight="1" spans="1:11">
+      <c r="A41" s="6">
+        <v>43477</v>
+      </c>
+      <c r="B41" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="K41" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="42" ht="30" customHeight="1" spans="1:11">
+      <c r="A42" s="6">
+        <v>43477</v>
+      </c>
+      <c r="K42" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="43" ht="41" customHeight="1" spans="1:2">
+      <c r="A43" s="6">
+        <v>43477</v>
+      </c>
+      <c r="B43" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="44" ht="30" customHeight="1" spans="2:2">
+      <c r="B44" s="11" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="45" ht="14.25" spans="2:2">
+      <c r="B45" s="12" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="46" ht="21" customHeight="1" spans="2:11">
+      <c r="B46" t="s">
+        <v>98</v>
+      </c>
+      <c r="K46" t="s">
+        <v>99</v>
+      </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B22" r:id="rId2" display=" Anel Tulegenova" tooltip="https://profile.alibaba.com/index.htm?spm=a2756.trade-order-list.0.0.333976e9NBO1LM&amp;memberId=ID1nmdEWxPH5xH19sIcxJc5av-73CBVUIvGZzsmfdZ780A*&amp;tracelog=from_orderlist_BP"/>
+  </hyperlinks>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>

--- a/notes/客户管理.xlsx
+++ b/notes/客户管理.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106">
   <si>
     <t>处理日期</t>
   </si>
@@ -316,7 +316,25 @@
     <t>Habibah Bell</t>
   </si>
   <si>
-    <t>定做衣服，发了尺码表</t>
+    <t>定做衣服，发了尺码表。要做500件</t>
+  </si>
+  <si>
+    <t>Chris Yoon</t>
+  </si>
+  <si>
+    <t>pu裤子，要shorts。询盘之后没回</t>
+  </si>
+  <si>
+    <t>lisaportolan NA</t>
+  </si>
+  <si>
+    <t>询盘之后没回</t>
+  </si>
+  <si>
+    <t>Jay Akponojivi</t>
+  </si>
+  <si>
+    <t>padmaja bhaskaruni</t>
   </si>
 </sst>
 </file>
@@ -324,10 +342,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="26">
     <font>
@@ -378,6 +396,29 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -437,50 +478,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color theme="1"/>
@@ -506,6 +503,27 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -541,6 +559,36 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -595,6 +643,18 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -644,48 +704,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -732,6 +750,30 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -750,15 +792,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -770,36 +803,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -824,6 +827,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
@@ -840,10 +858,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="18" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="25" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -852,137 +870,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="16" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="16" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="11" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="26" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1017,9 +1035,6 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1647,10 +1662,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:K46"/>
+  <dimension ref="A1:K50"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="K29" sqref="K29"/>
+    <sheetView tabSelected="1" topLeftCell="C28" workbookViewId="0">
+      <selection activeCell="K48" sqref="K48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -2440,22 +2455,75 @@
         <v>97</v>
       </c>
     </row>
-    <row r="44" ht="30" customHeight="1" spans="2:2">
+    <row r="44" ht="30" customHeight="1" spans="1:2">
+      <c r="A44" s="6">
+        <v>43477</v>
+      </c>
       <c r="B44" s="11" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="45" ht="14.25" spans="2:2">
-      <c r="B45" s="12" t="s">
+    <row r="45" ht="14.25" spans="1:2">
+      <c r="A45" s="6">
+        <v>43479</v>
+      </c>
+      <c r="B45" s="9" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="46" ht="21" customHeight="1" spans="2:11">
+    <row r="46" ht="21" customHeight="1" spans="1:11">
+      <c r="A46" s="6">
+        <v>43479</v>
+      </c>
       <c r="B46" t="s">
         <v>98</v>
       </c>
       <c r="K46" t="s">
         <v>99</v>
+      </c>
+    </row>
+    <row r="47" ht="43" customHeight="1" spans="1:11">
+      <c r="A47" s="6">
+        <v>43479</v>
+      </c>
+      <c r="B47" t="s">
+        <v>100</v>
+      </c>
+      <c r="K47" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11">
+      <c r="A48" s="6">
+        <v>43479</v>
+      </c>
+      <c r="B48" t="s">
+        <v>102</v>
+      </c>
+      <c r="K48" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="49" spans="1:11">
+      <c r="A49" s="6">
+        <v>43479</v>
+      </c>
+      <c r="B49" t="s">
+        <v>104</v>
+      </c>
+      <c r="K49" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="50" spans="1:11">
+      <c r="A50" s="6">
+        <v>43479</v>
+      </c>
+      <c r="B50" t="s">
+        <v>105</v>
+      </c>
+      <c r="K50" t="s">
+        <v>103</v>
       </c>
     </row>
   </sheetData>

--- a/notes/客户管理.xlsx
+++ b/notes/客户管理.xlsx
@@ -538,7 +538,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="35">
+  <fills count="36">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -554,6 +554,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -858,149 +864,149 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="26" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="17" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="17" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="25" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="16" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="16" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1032,6 +1038,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1">
@@ -1664,8 +1673,8 @@
   <sheetPr/>
   <dimension ref="A1:K50"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C28" workbookViewId="0">
-      <selection activeCell="K48" sqref="K48"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="B39" sqref="B39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -2418,7 +2427,7 @@
       </c>
     </row>
     <row r="40" spans="1:11">
-      <c r="A40" s="6">
+      <c r="A40" s="11">
         <v>43477</v>
       </c>
       <c r="B40" t="s">
@@ -2429,7 +2438,7 @@
       </c>
     </row>
     <row r="41" ht="24" customHeight="1" spans="1:11">
-      <c r="A41" s="6">
+      <c r="A41" s="11">
         <v>43477</v>
       </c>
       <c r="B41" s="9" t="s">
@@ -2448,7 +2457,7 @@
       </c>
     </row>
     <row r="43" ht="41" customHeight="1" spans="1:2">
-      <c r="A43" s="6">
+      <c r="A43" s="11">
         <v>43477</v>
       </c>
       <c r="B43" t="s">
@@ -2459,12 +2468,12 @@
       <c r="A44" s="6">
         <v>43477</v>
       </c>
-      <c r="B44" s="11" t="s">
+      <c r="B44" s="12" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="45" ht="14.25" spans="1:2">
-      <c r="A45" s="6">
+      <c r="A45" s="11">
         <v>43479</v>
       </c>
       <c r="B45" s="9" t="s">
@@ -2472,7 +2481,7 @@
       </c>
     </row>
     <row r="46" ht="21" customHeight="1" spans="1:11">
-      <c r="A46" s="6">
+      <c r="A46" s="11">
         <v>43479</v>
       </c>
       <c r="B46" t="s">
@@ -2483,7 +2492,7 @@
       </c>
     </row>
     <row r="47" ht="43" customHeight="1" spans="1:11">
-      <c r="A47" s="6">
+      <c r="A47" s="11">
         <v>43479</v>
       </c>
       <c r="B47" t="s">
@@ -2494,7 +2503,7 @@
       </c>
     </row>
     <row r="48" spans="1:11">
-      <c r="A48" s="6">
+      <c r="A48" s="11">
         <v>43479</v>
       </c>
       <c r="B48" t="s">
@@ -2505,7 +2514,7 @@
       </c>
     </row>
     <row r="49" spans="1:11">
-      <c r="A49" s="6">
+      <c r="A49" s="11">
         <v>43479</v>
       </c>
       <c r="B49" t="s">
@@ -2516,7 +2525,7 @@
       </c>
     </row>
     <row r="50" spans="1:11">
-      <c r="A50" s="6">
+      <c r="A50" s="11">
         <v>43479</v>
       </c>
       <c r="B50" t="s">
